--- a/sputnik/personal/uch/uch229.xlsx
+++ b/sputnik/personal/uch/uch229.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -42,14 +39,17 @@
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
-    <t>Начислены пени за 90 дней просрочки</t>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,37 +133,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,19 +155,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,10 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -498,17 +475,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -517,12 +494,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -530,100 +509,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="14">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10176.81</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="14">
         <v>43407</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>10176.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="14">
         <v>43407</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>335.85</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="14">
         <v>43407</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
         <v>335.85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="15">
         <v>43586</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>10032.33</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="15">
         <v>43829</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>10032.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>43829</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12">
-        <v>902.91</v>
-      </c>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -631,12 +601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,12 +615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch229.xlsx
+++ b/sputnik/personal/uch/uch229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №229</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -582,9 +585,15 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>11287.5</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">

--- a/sputnik/personal/uch/uch229.xlsx
+++ b/sputnik/personal/uch/uch229.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,13 +46,22 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020</t>
+  </si>
+  <si>
+    <t>Начислены пени за 245 дн просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,6 +185,10 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -478,17 +493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -497,8 +512,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -512,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43221</v>
       </c>
@@ -524,7 +539,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43407</v>
       </c>
@@ -536,7 +551,7 @@
         <v>10176.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43407</v>
       </c>
@@ -548,7 +563,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43407</v>
       </c>
@@ -560,7 +575,7 @@
         <v>335.85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43586</v>
       </c>
@@ -572,7 +587,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43829</v>
       </c>
@@ -584,7 +599,7 @@
         <v>10032.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>43952</v>
       </c>
@@ -596,11 +611,89 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12036.99</v>
+      </c>
       <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>44350</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>4287.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>44350</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1050.44</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -610,12 +703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,12 +717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch229.xlsx
+++ b/sputnik/personal/uch/uch229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислены пени за 245 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислены пени за 314 дн просрочки</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,52 +651,64 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="16">
+        <v>44419</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>7000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="16">
+        <v>44419</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2198</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch229.xlsx
+++ b/sputnik/personal/uch/uch229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t>Начислены пени за 314 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислены пени за 90 дн просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +89,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +107,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,13 +192,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,9 +205,37 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,10 +560,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -531,7 +574,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -543,7 +586,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>43407</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -558,28 +601,28 @@
       <c r="A5" s="14">
         <v>43407</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <v>335.85</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43407</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>335.85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>43586</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -591,7 +634,7 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>43829</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -602,82 +645,88 @@
         <v>10032.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>43829</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="19">
+        <v>902.91</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>43952</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="26">
         <v>11287.5</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>44317</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>12036.99</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>44350</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
         <v>4287.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
         <v>44350</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="19">
         <v>1050.44</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>44419</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23">
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
         <v>44419</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="28">
         <v>2198</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,6 +758,12 @@
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
